--- a/data/trans_camb/P26_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P26_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,15</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,64</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,68</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,67</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>-6,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-2,2</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 10,48</t>
+          <t>-1,34; 4,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 14,63</t>
+          <t>-1,67; 3,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 42,47</t>
+          <t>-0,55; 7,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 16,91</t>
+          <t>-1,56; 4,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 15,49</t>
+          <t>-2,89; 5,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 26,0</t>
+          <t>-2,71; 6,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 22,51</t>
+          <t>-2,39; 5,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 37,4</t>
+          <t>-0,22; 8,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,79; 9,13</t>
+          <t>0,68; 9,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-17,3; 17,59</t>
+          <t>0,29; 9,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 24,04</t>
+          <t>-6,47; 4,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 26,12</t>
+          <t>-14,9; 0,61</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-1,05; 3,53</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,14; 4,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 6,85</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,18; 5,8</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 3,6</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; 2,38</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,44%</t>
+          <t>78,47%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,21%</t>
+          <t>49,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,8%</t>
+          <t>234,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-38,35%</t>
+          <t>76,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,78%</t>
+          <t>59,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>63,81%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>76,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>106,92%</t>
+          <t>219,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>272,66%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>260,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>49,98%</t>
+          <t>-17,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>50,47%</t>
+          <t>-53,19%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>78,03%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>156,86%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>263,13%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>195,27%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-2,23%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-34,91%</t>
         </is>
       </c>
     </row>
@@ -885,37 +1023,67 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,62; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,22; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-62,63; —</t>
+          <t>-37,92; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-85,33; 219,05</t>
+          <t>-59,53; —</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-62,28; 375,36</t>
+          <t>-49,71; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-49,16; 435,12</t>
+          <t>-73,78; 129,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-49,35; 591,56</t>
+          <t>-84,01; 21,47</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-70,5; 538,69</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-36,85; 906,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>29,38; 1316,38</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-32,36; 1050,04</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-60,86; 165,08</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-71,87; 80,17</t>
         </is>
       </c>
     </row>
@@ -937,57 +1105,87 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,03</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,74</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,32</t>
+          <t>-6,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>5,78</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,83</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>2,56</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,48</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,68</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 10,02</t>
+          <t>-0,94; 3,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 17,92</t>
+          <t>-0,51; 4,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 35,3</t>
+          <t>2,75; 10,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 25,03</t>
+          <t>0,28; 35,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,92; 6,12</t>
+          <t>-33,7; 3,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 14,58</t>
+          <t>-2,47; 5,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,48; 17,92</t>
+          <t>-1,48; 6,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-21,22; 17,32</t>
+          <t>-0,02; 7,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 6,18</t>
+          <t>1,7; 10,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 13,67</t>
+          <t>-0,49; 7,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 22,72</t>
+          <t>-0,66; 12,01</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 16,48</t>
+          <t>-3,88; 8,88</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 3,41</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 4,61</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 8,5</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,14; 21,16</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-17,59; 4,64</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 5,83</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,42%</t>
+          <t>118,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>148,34%</t>
+          <t>296,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>509,95%</t>
+          <t>1070,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>136,53%</t>
+          <t>1887,31%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-44,78%</t>
+          <t>-65,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-8,07%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>67,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>149,17%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-26,32%</t>
+          <t>244,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>124,82%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>102,48%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>32,99%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>75,86%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>176,23%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>403,64%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>473,83%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-14,94%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>43,98%</t>
         </is>
       </c>
     </row>
@@ -1156,42 +1414,72 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-87,27; 79,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-66,48; 179,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 210,8</t>
+          <t>-57,97; 727,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,24; 212,94</t>
+          <t>-9,8; 822,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-75,33; 123,45</t>
+          <t>28,69; 1069,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 240,86</t>
+          <t>-31,71; 611,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 440,3</t>
+          <t>-18,51; 398,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 288,11</t>
+          <t>-38,32; 186,41</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-48,61; 547,36</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>7,38; 617,86</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>97,76; 1172,5</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>42,49; 3875,31</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-85,27; 157,84</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-33,52; 188,19</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>8,31</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,88</t>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5,9</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,34</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 12,49</t>
+          <t>-0,08; 6,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 6,71</t>
+          <t>-1,61; 2,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 17,78</t>
+          <t>0,72; 6,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 28,62</t>
+          <t>0,03; 6,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 8,63</t>
+          <t>-2,5; 6,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 17,03</t>
+          <t>-5,21; 5,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,12; 22,51</t>
+          <t>-0,28; 6,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 18,45</t>
+          <t>2,2; 9,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 7,8</t>
+          <t>4,87; 12,09</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 9,59</t>
+          <t>2,53; 9,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 17,63</t>
+          <t>-2,58; 7,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 19,28</t>
+          <t>-4,2; 7,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 5,22</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 5,35</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 8,2</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,03; 6,76</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 5,13</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-3,32; 4,05</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>164,49%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,77%</t>
+          <t>33,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>197,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>102,04%</t>
+          <t>158,54%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,61%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,23%</t>
+          <t>-5,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,26%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>189,48%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>285,31%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>201,57%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>72,69%</t>
+          <t>12,62%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>119,1%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>134,47%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>254,76%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>187,34%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,15; 266,0</t>
+          <t>-20,44; 722,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-81,7; 176,83</t>
+          <t>-67,41; 371,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 365,02</t>
+          <t>6,55; 800,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-15,61; 589,92</t>
+          <t>-24,77; 717,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,79; 101,7</t>
+          <t>-44,92; 233,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,14; 211,26</t>
+          <t>-60,86; 128,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,25; 290,6</t>
+          <t>-14,03; 419,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 223,5</t>
+          <t>45,08; 547,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,96; 86,22</t>
+          <t>94,03; 748,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 106,44</t>
+          <t>50,3; 612,83</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 210,04</t>
+          <t>-24,28; 122,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 217,73</t>
+          <t>-35,81; 103,73</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>15,9; 318,34</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>37,46; 332,37</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>105,11; 518,25</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>58,54; 428,87</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-22,75; 94,12</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-35,35; 62,81</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,58</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,06</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>9,45</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,68</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>6,75</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>5,79</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-30,99; -1,94</t>
+          <t>-11,33; -0,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 8,74</t>
+          <t>-7,52; 4,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,41; 17,68</t>
+          <t>-1,52; 9,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 11,99</t>
+          <t>-4,72; 5,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 10,15</t>
+          <t>-2,89; 6,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,66; 18,69</t>
+          <t>-4,68; 5,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,44; 15,48</t>
+          <t>0,65; 7,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 20,56</t>
+          <t>4,91; 12,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 3,49</t>
+          <t>4,31; 11,86</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 12,05</t>
+          <t>5,46; 14,34</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 14,51</t>
+          <t>-6,87; 4,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 12,61</t>
+          <t>-7,67; 4,03</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 2,88</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 7,28</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 9,59</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 9,02</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 3,83</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-4,4; 3,49</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-81,26%</t>
+          <t>-75,03%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,51%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>125,01%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>103,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>101,76%</t>
+          <t>237,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>219,38%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>254,85%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>63,94%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>51,49%</t>
+          <t>-10,67%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>118,1%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>170,45%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>146,32%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>0,1%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-4,05%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-80,81; 146,49</t>
+          <t>-79,2; 227,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-48,88; 293,74</t>
+          <t>-35,33; 575,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 215,24</t>
+          <t>-60,97; 304,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 137,22</t>
+          <t>-39,08; 158,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,94; 254,84</t>
+          <t>-49,89; 126,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,49; 214,85</t>
+          <t>5,11; 340,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,6; 288,26</t>
+          <t>78,22; 540,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 48,13</t>
+          <t>64,73; 501,92</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-28,55; 145,74</t>
+          <t>95,07; 582,58</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 178,86</t>
+          <t>-43,7; 47,03</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 148,04</t>
+          <t>-45,46; 39,13</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-51,04; 105,87</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 264,15</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>10,78; 346,9</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>14,9; 315,63</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-30,58; 47,19</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-36,6; 40,15</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,0</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,51</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>15,12</t>
+          <t>10,11</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>11,02</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>11,97</t>
+          <t>-6,69</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,92</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,8</t>
+          <t>1,15; 6,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,22; 16,11</t>
+          <t>3,72; 10,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,42; 10,44</t>
+          <t>2,16; 7,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,38; 15,74</t>
+          <t>2,77; 9,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 11,19</t>
+          <t>3,06; 15,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,5; 18,69</t>
+          <t>0,26; 13,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 11,68</t>
+          <t>0,13; 8,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,52; 23,43</t>
+          <t>5,29; 14,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,25; 8,98</t>
+          <t>1,51; 9,99</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,62; 15,94</t>
+          <t>1,71; 12,06</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,31; 9,31</t>
+          <t>-6,52; 6,01</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,9; 17,01</t>
+          <t>-13,74; -0,8</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 6,7</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>5,71; 11,43</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>2,88; 8,02</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 9,3</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 8,38</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-5,23; 4,66</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>586,43%</t>
+          <t>956,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1118,68%</t>
+          <t>1786,83%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>632,17%</t>
+          <t>1231,53%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>963,69%</t>
+          <t>1523,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>51,44%</t>
+          <t>145,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>153,14%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>67,77%</t>
+          <t>118,02%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>201,2%</t>
+          <t>278,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>100,23%</t>
+          <t>159,45%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>241,95%</t>
+          <t>173,32%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>116,19%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>262,64%</t>
+          <t>-40,04%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>197,72%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>418,8%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>261,88%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>301,42%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>52,87%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
         </is>
       </c>
     </row>
@@ -1984,42 +2602,72 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 272,6</t>
+          <t>29,86; 436,92</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,37; 521,21</t>
+          <t>-4,82; 284,32</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 314,42</t>
+          <t>-9,54; 373,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>53,44; 604,4</t>
+          <t>80,45; 720,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 351,52</t>
+          <t>15,27; 492,77</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>74,18; 601,39</t>
+          <t>17,15; 561,34</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>10,66; 350,93</t>
+          <t>-49,13; 94,45</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>93,99; 680,86</t>
+          <t>-66,05; -2,53</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>44,19; 601,35</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>178,43; 1012,32</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>89,17; 705,83</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>108,43; 797,11</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 142,43</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-36,12; 47,17</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>3,97</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>4,3</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>0,21</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 2,18</t>
+          <t>-2,89; 4,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 19,74</t>
+          <t>-0,94; 13,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 4,7</t>
+          <t>-1,69; 5,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 6,09</t>
+          <t>-2,05; 7,94</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,46</t>
+          <t>-3,99; 10,75</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 2,45</t>
+          <t>-3,07; 10,5</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 26,5</t>
+          <t>0,06; 9,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 11,71</t>
+          <t>-2,86; 4,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 3,72</t>
+          <t>1,29; 16,58</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,54</t>
+          <t>3,63; 16,96</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 15,64</t>
+          <t>-13,67; 1,48</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 8,4</t>
+          <t>-10,45; 4,7</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 5,52</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 6,27</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 10,15</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>2,28; 10,54</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 3,98</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 5,47</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-35,55%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>135,01%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>66,79%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>19,93%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>70,63%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-29,36%</t>
+          <t>60,34%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>134,67%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>206,81%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>-39,34%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>-19,66%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>64,12%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>50,96%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>111,52%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>161,48%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>-15,21%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-89,51; 96,4</t>
+          <t>-75,9; 295,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-55,28; 668,01</t>
+          <t>-42,68; 1038,85</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-67,59; 206,63</t>
+          <t>-43,44; 379,71</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-62,36; 239,63</t>
+          <t>-55,65; 469,32</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-44,57; 121,71</t>
+          <t>-56,34; 487,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-69,61; 54,6</t>
+          <t>-50,88; 434,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 416,22</t>
+          <t>-6,99; 310,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 219,72</t>
+          <t>-50,91; 136,8</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 76,46</t>
+          <t>5,87; 477,5</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 138,62</t>
+          <t>55,23; 537,29</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 288,93</t>
+          <t>-74,86; 21,03</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 163,4</t>
+          <t>-68,85; 79,27</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-10,82; 194,38</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-26,0; 192,56</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>18,35; 331,01</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>41,69; 354,84</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-52,99; 59,71</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-50,32; 98,03</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>6,21</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>7,19</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>7,06</t>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>5,3</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,01</t>
+          <t>-0,68; 1,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 8,83</t>
+          <t>0,61; 3,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,21; 10,37</t>
+          <t>2,23; 5,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 8,2</t>
+          <t>1,57; 9,74</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,61</t>
+          <t>-4,35; 3,75</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,62</t>
+          <t>-0,19; 4,17</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,84; 13,86</t>
+          <t>1,68; 4,86</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,88; 13,65</t>
+          <t>3,73; 6,85</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,75</t>
+          <t>4,97; 9,0</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,7</t>
+          <t>4,74; 9,02</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,9</t>
+          <t>-2,76; 2,18</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,86</t>
+          <t>-4,73; 0,53</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 3,07</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 4,89</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>4,05; 6,64</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>3,97; 7,86</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 2,35</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 1,76</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-19,46%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>47,85%</t>
+          <t>109,57%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>208,3%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>59,2%</t>
+          <t>206,35%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>55,61%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>75,68%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>160,49%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>201,76%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>205,4%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>80,92%</t>
+          <t>-3,3%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>-16,41%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>74,8%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>142,38%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>204,08%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>205,82%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>5,87%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-57,73; 44,31</t>
+          <t>-30,47; 146,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 166,37</t>
+          <t>8,63; 281,68</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>6,87; 215,57</t>
+          <t>57,2; 427,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 165,48</t>
+          <t>45,41; 597,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,2; 55,11</t>
+          <t>-44,16; 89,06</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>15,36; 117,19</t>
+          <t>-3,47; 99,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>27,87; 149,84</t>
+          <t>40,59; 176,8</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>37,26; 160,42</t>
+          <t>93,05; 259,33</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 38,53</t>
+          <t>130,25; 341,17</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>14,91; 107,12</t>
+          <t>120,36; 328,31</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>34,37; 137,21</t>
+          <t>-24,68; 25,41</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>34,18; 134,43</t>
+          <t>-35,96; 5,49</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>25,73; 139,69</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>80,02; 222,05</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>124,23; 302,43</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>121,93; 340,23</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-21,35; 33,78</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-18,82; 24,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
